--- a/topic_split/topic_19.xlsx
+++ b/topic_split/topic_19.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>issue</t>
   </si>
@@ -22,41 +22,77 @@
     <t>topic</t>
   </si>
   <si>
-    <t>confidence_score</t>
+    <t xml:space="preserve">Design audit items
+This is a list of items to be improved, reported in the staging audit by YU:
+https://docs.google.com/document/d/1lwOeYkeOasYQlrILpS51KNoQivdX43Qr1VHvDo7Bd0c/edit#heading=h.3wreak3fwz2d
+Please check the document for more detail about each item.
+High priority:
+- [ ] #351 
+- [ ] #385
+- [ ] #386
+Medium priority:
+- [ ] #387
+- [ ] #388
+- [ ] #389
+- [ ] #390
+- [ ] Main nav items - distance of items - Main nav
+- [ ] Main nav- search bar styling - Main nav
+- [ ] Nav item hovers and interactions - Main nav
+- [ ] Country dropdown style - Main nav
+- [ ] Dropdown height - Main nav
+- [ ] Cards: styling - Components
+- [ ] Tabs: styling - Components
+- [ ] Dropdown: styling - Components
+- [ ] Tables: sorting icon styling - Components
+- [ ] External links: styling (country pages) - Componets
+- [ ] Tooltip: interaction - Components
+- [ ] Highlighted emergency cards: style - Components
+- [ ] Key numbers: style - Components
+- [ ] Section headers: style - Components
+Low priority
+- [ ] Map data points - crisis categorisation - Homepage
+- [ ] Map Legends: styling - Components
+- [ ] Filters: styling - Components
+- [ ] Primary button: styling - Components
+- [ ] Secondary button: styling - Components
+- [ ] Pagination: styling - Components
+- [ ] Breadcrumbs: styling - Components
+- [ ] Checkbox: styling - Components
+- [ ] Map: style - Components
+- [ ] Side menu: style - Components
+- [ ] Info cards on “Surge”: style - Component
+- [ ] Side panel by the map: style - Component
+- [ ] Data is not available! - Component
+- [ ] Popup: style - Component
+cc: @mariam-yu </t>
   </si>
   <si>
-    <t>[0.01552281 0.00919524 0.01548654 0.00878928 0.01576944 0.02050616
- 0.02931632 0.02286743 0.02034389 0.04881594 0.03521724 0.02053652
- 0.0275809  0.01176005 0.02383449 0.07466459 0.0235762  0.02268999
- 0.180493   0.10774949 0.02099783 0.04588803 0.02367499 0.05239639
- 0.04219111]</t>
+    <t>Implement cookie consent to comply with privacy requirements
+Cookies used in IFRC GO
+- [ ] Sentry
+- [ ] Google Analytics
+**Acceptance Criteria**
+- [ ] Users must be able to accept or reject non-essential cookies
+- [ ] Display a cookie banner with clear options for consent management
+- [ ] Block Google Analytics unless the user gives explicit consent
+- [ ] Include a link to a privacy policy or cookie details page
+**Tasks**
+- [ ]  Design a cookie banner with "Accept" and "Manage Preferences" option
+- [ ]  Implement logic to block Google Analytics unless consent is granted
+- [ ]  Ensure Sentry remains active without requiring consent
+- [ ]  Add a link to the privacy policy or cookie details page in the banner</t>
   </si>
   <si>
-    <t>[4.31117035e-308 2.20553368e-308 3.60679487e-308 2.10947411e-308
- 4.09229863e-308 5.63910521e-308 7.30127594e-308 5.97177327e-308
- 4.66548667e-308 1.22521006e-307 8.80724660e-308 4.63412808e-308
- 6.41465154e-308 2.80097788e-308 6.19083100e-308 2.03751512e-307
- 6.84287083e-308 5.95963511e-308 1.00000000e+000 2.87069094e-307
- 4.90573116e-308 1.56226940e-307 5.96432649e-308 1.36673701e-307
- 8.46898657e-308]</t>
-  </si>
-  <si>
-    <t>[4.34934884e-308 2.19760529e-308 3.45236100e-308 2.09885932e-308
- 3.87932495e-308 5.26988890e-308 6.61657926e-308 5.43451122e-308
- 4.38094492e-308 1.44914490e-307 7.67024694e-308 4.41360871e-308
- 5.85620658e-308 2.77087432e-308 5.66662506e-308 2.95395877e-307
- 6.52269490e-308 5.53434749e-308 1.00000000e+000 3.12054776e-307
- 4.56226943e-308 1.33362633e-307 5.42408854e-308 1.51720613e-307
- 7.80465561e-308]</t>
-  </si>
-  <si>
-    <t>[4.25126304e-308 2.17448128e-308 3.70669232e-308 2.08141282e-308
- 4.27325120e-308 5.81460292e-308 7.29598262e-308 6.18723308e-308
- 4.81081945e-308 1.10580536e-307 9.34174843e-308 4.79515936e-308
- 6.55992685e-308 2.75810788e-308 6.23674954e-308 1.79382120e-307
- 6.90066115e-308 5.92768779e-308 1.00000000e+000 2.28650178e-307
- 5.08039140e-308 1.60324006e-307 6.22012909e-308 1.21202999e-307
- 8.79257406e-308]</t>
+    <t>ERU Capacity And Readiness for a National Society
+- Add filters for:
+  - [ ] National Society
+  - [ ] Sector
+  - [ ] ERU Type
+- Display a list of all National Societies with their ERU capacity and readiness details.
+- When a National Society is selected, show the specific ERU capacity and readiness details for that society.
+![Image](https://github.com/user-attachments/assets/f4f1b2de-8f62-4b74-b494-e40739e56ab5)
+**Readiness Detail Modal**
+![Image](https://github.com/user-attachments/assets/e1f9929d-ba00-4001-84b7-6b1150b891fb)</t>
   </si>
 </sst>
 </file>
@@ -414,65 +450,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
-        <v>92</v>
       </c>
       <c r="B2">
         <v>18</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <v>100</v>
       </c>
       <c r="B3">
         <v>18</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <v>130</v>
       </c>
       <c r="B4">
         <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
-        <v>131</v>
-      </c>
-      <c r="B5">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
